--- a/Excel/credits.xlsx
+++ b/Excel/credits.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Credits - Audacity Manual</t>
   </si>
@@ -37,15 +31,6 @@
     <t>Brief History</t>
   </si>
   <si>
-    <t>Audacity was started in 1999 by Dominic Mazzoni while he was a graduate student at Carnegie Mellon University in Pittsburgh, PA (USA). He was working on a research project with his advisor, Professor Roger Dannenberg, and they needed a tool that would let them</t>
-  </si>
-  <si>
-    <t>visualize audio analysis algorithms.</t>
-  </si>
-  <si>
-    <t>Over time, this application developed into a general audio editor, and other people started helping out.</t>
-  </si>
-  <si>
     <t>Today, Audacity is developed using the Git version control system hosted at GitHub. Dozens of people have contributed to Audacity.</t>
   </si>
   <si>
@@ -136,37 +121,28 @@
     <t>For a list of all past and present contributors to the Audacity project and for personal contact information, please visit the Credits page on our main website.</t>
   </si>
   <si>
-    <t>क्रेडिट्स - ऑडसेट मॅन्युअल</t>
-  </si>
-  <si>
-    <t>जमा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
+    <t>सन्मान - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
   </si>
   <si>
     <t>थोडक्यात इतिहास</t>
   </si>
   <si>
-    <t>१ b 1999 in मध्ये पिट्सबर्ग, पीए (यूएसए) मधील कार्नेगी मेलॉन विद्यापीठात पदवीधर विद्यार्थी असताना डॉमिनिक मॅझोनीने ऑडिटीची सुरूवात केली होती. ते आपले सल्लागार प्रोफेसर रॉजर डॅन्नेनबर्ग यांच्यासमवेत संशोधन प्रकल्पात काम करत होते आणि त्यांना एक साधन हवे होते जे त्यांना होऊ दे</t>
-  </si>
-  <si>
-    <t>ऑडिओ विश्लेषण अल्गोरिदम दृश्यमान करा.</t>
-  </si>
-  <si>
-    <t>कालांतराने, हा अनुप्रयोग सामान्य ऑडिओ संपादक म्हणून विकसित झाला आणि इतर लोकांनी मदत करण्यास सुरवात केली.</t>
-  </si>
-  <si>
-    <t>आज, गिटहब येथे होस्ट केलेल्या गिट आवृत्ती नियंत्रण प्रणालीचा वापर करून ऑडिटी विकसित केली गेली आहे. शेकडो लोकांनी ऑडॅसिटीमध्ये योगदान दिले आहे.</t>
-  </si>
-  <si>
-    <t>मॅन्युअल</t>
-  </si>
-  <si>
-    <t>ऑडसिटी १.२ साठी मागील मॅन्युअल डोनीक मॅझोनी यांच्या मोठ्या योगदानाने टोनी ओटझमान यांनी लिहिले होते. सध्याचे मॅन्युअल त्या कामावर तयार होते आणि त्याद्वारे त्यांचे महत्त्वपूर्ण योगदान आहे:</t>
+    <t>१ b 1999 in मध्ये पिट्सबर्ग, पीए (यूएसए) मधील कार्नेगी मेलॉन विद्यापीठात पदवीधर विद्यार्थी असताना डॉमिनिक मॅझोनीने ओड्यासिटीची सुरूवात केली होती. ते आपले सल्लागार प्रोफेसर रॉजर डॅन्नेनबर्ग यांच्यासमवेत संशोधन प्रकल्पात काम करत होते आणि त्यांना एक असे साधन हवे होते जे त्यांना ध्वनी विश्लेषण अल्गोरिदमची कल्पना देऊ शकेल . कालांतराने, हा अनुप्रयोग सामान्य ध्वनी संपादक म्हणून विकसित झाला आणि इतर लोकांनी मदत करण्यास सुरवात केली.</t>
+  </si>
+  <si>
+    <t>आज, गिटहब येथे होस्ट केलेल्या गिट आवृत्ती नियंत्रण प्रणालीचा वापर करून ओड्यासिटी विकसित केली गेली आहे . शेकडो लोकांनी मार्गदर्शकमध्ये योगदान दिले आहे.</t>
+  </si>
+  <si>
+    <t>माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी १.२ साठी मागील माहिती पुस्तिका डोनीक मॅझोनी यांच्या मोठ्या योगदानाने टोनी ओटझमान यांनी लिहिले होते. सध्याचे माहिती पुस्तिका त्या कार्यावर तयार होते आणि त्याद्वारे त्यांचे महत्त्वपूर्ण योगदान आहे:</t>
   </si>
   <si>
     <t>गेल अँड्र्यूज</t>
@@ -190,7 +166,7 @@
     <t>जेम्स क्रोक</t>
   </si>
   <si>
-    <t>स्टीव्ह डॉल्टन</t>
+    <t>स्टीव्ह डाॅल्टन</t>
   </si>
   <si>
     <t>स्कॉट ग्रॅनेमान</t>
@@ -247,23 +223,21 @@
     <t>डॅनियल विन्झेन (जर्मन)</t>
   </si>
   <si>
-    <t>ऑडसिटी प्रोजेक्टमध्ये भूतकाळातील आणि विद्यमान योगदानकर्त्यांच्या यादीसाठी आणि वैयक्तिक संपर्क माहितीसाठी, कृपया आमच्या मुख्य वेबसाइटवरील क्रेडिट पृष्ठास भेट द्या.</t>
+    <t>ओड्यासिटी प्रकल्पमध्ये भूतकाळातील आणि विद्यमान योगदानकर्त्यांच्या यादीसाठी आणि वैयक्तिक संपर्क माहितीसाठी, कृपया आमच्या मुख्य संकेतस्थळवरील मानमान्यता पृष्ठास भेट द्या .</t>
+  </si>
+  <si>
+    <t>सन्मान</t>
+  </si>
+  <si>
+    <t>Audacity was started in 1999 by Dominic Mazzoni while he was a graduate student at Carnegie Mellon University in Pittsburgh, PA (USA). He was working on a research project with his advisor, Professor Roger Dannenberg, and they needed a tool that would let them visualize audio analysis algorithms.  Over time, this application developed into a general audio editor, and other people started helping out.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -279,27 +253,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -308,8 +267,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,6 +276,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -429,6 +394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,437 +570,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
